--- a/tablas/06_Resultado_Cemento_Asfaltico.xlsx
+++ b/tablas/06_Resultado_Cemento_Asfaltico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,10 +527,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1500</v>
+        <v>5900</v>
       </c>
       <c r="C2" t="n">
-        <v>750</v>
+        <v>2950</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -560,7 +560,7 @@
         <v>600</v>
       </c>
       <c r="K2" t="n">
-        <v>150</v>
+        <v>2350</v>
       </c>
       <c r="L2" t="n">
         <v>40</v>
@@ -588,10 +588,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1500</v>
+        <v>5900</v>
       </c>
       <c r="C3" t="n">
-        <v>750</v>
+        <v>2950</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -609,28 +609,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I3" t="n">
         <v>15</v>
       </c>
       <c r="J3" t="n">
-        <v>150</v>
+        <v>225</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2125</v>
       </c>
       <c r="L3" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O3" t="n">
         <v>15</v>
@@ -645,23 +645,23 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>INTRATEX</t>
+          <t>SYNTEX</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>186</v>
+        <v>5900</v>
       </c>
       <c r="C4" t="n">
-        <v>93</v>
+        <v>2950</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>15x15</t>
+          <t>20x15</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(11.8, 25)</t>
+          <t>(20, 25)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -670,28 +670,28 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="I4" t="n">
         <v>15</v>
       </c>
       <c r="J4" t="n">
-        <v>45</v>
+        <v>300</v>
       </c>
       <c r="K4" t="n">
-        <v>48</v>
+        <v>1825</v>
       </c>
       <c r="L4" t="n">
-        <v>3.9</v>
+        <v>20</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="O4" t="n">
         <v>15</v>
@@ -701,67 +701,6 @@
       </c>
       <c r="Q4" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>INTRATEX</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>186</v>
-      </c>
-      <c r="C5" t="n">
-        <v>93</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>20x15</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>(20, 25)</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>arriba</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-      <c r="I5" t="n">
-        <v>15</v>
-      </c>
-      <c r="J5" t="n">
-        <v>48</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4</v>
-      </c>
-      <c r="M5" t="n">
-        <v>16</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3</v>
-      </c>
-      <c r="O5" t="n">
-        <v>15</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
